--- a/data/pca/factorExposure/factorExposure_2011-11-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01067933191466829</v>
+        <v>0.01184854623781417</v>
       </c>
       <c r="C2">
-        <v>-0.03148866432825214</v>
+        <v>0.02232970742641113</v>
       </c>
       <c r="D2">
-        <v>0.01816515967926587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02367603756694155</v>
+      </c>
+      <c r="E2">
+        <v>-0.01179025134384771</v>
+      </c>
+      <c r="F2">
+        <v>-0.0288187552306505</v>
+      </c>
+      <c r="G2">
+        <v>0.0004125718836013757</v>
+      </c>
+      <c r="H2">
+        <v>-0.02328279392770867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07365503729023744</v>
+        <v>0.08890661912495111</v>
       </c>
       <c r="C4">
-        <v>-0.06140570064064736</v>
+        <v>0.03533059028748298</v>
       </c>
       <c r="D4">
-        <v>0.07091845068102394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07156057474837046</v>
+      </c>
+      <c r="E4">
+        <v>-0.01039831472251227</v>
+      </c>
+      <c r="F4">
+        <v>-0.04014598792082822</v>
+      </c>
+      <c r="G4">
+        <v>-0.01405870515699915</v>
+      </c>
+      <c r="H4">
+        <v>0.04281705943220885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1096829309294267</v>
+        <v>0.1240424521751807</v>
       </c>
       <c r="C6">
-        <v>-0.06554807051918518</v>
+        <v>0.04733013497533878</v>
       </c>
       <c r="D6">
-        <v>-0.0007658733643499695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01413038995582337</v>
+      </c>
+      <c r="E6">
+        <v>0.02796047576187987</v>
+      </c>
+      <c r="F6">
+        <v>-0.04716430305778008</v>
+      </c>
+      <c r="G6">
+        <v>-0.008725334318986346</v>
+      </c>
+      <c r="H6">
+        <v>-0.115000888604293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05329202198599334</v>
+        <v>0.06467837485826719</v>
       </c>
       <c r="C7">
-        <v>-0.03765908851125876</v>
+        <v>0.01677383214915004</v>
       </c>
       <c r="D7">
-        <v>0.03077161526768308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05252702044363761</v>
+      </c>
+      <c r="E7">
+        <v>-0.03236636124346839</v>
+      </c>
+      <c r="F7">
+        <v>-0.04355175436874309</v>
+      </c>
+      <c r="G7">
+        <v>0.02817907774180622</v>
+      </c>
+      <c r="H7">
+        <v>0.01504881039883518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04005736090018175</v>
+        <v>0.04463775378486848</v>
       </c>
       <c r="C8">
-        <v>-0.01678912524028698</v>
+        <v>0.01045627214127585</v>
       </c>
       <c r="D8">
-        <v>0.06352540950631334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0258200716038209</v>
+      </c>
+      <c r="E8">
+        <v>-0.01081084172328927</v>
+      </c>
+      <c r="F8">
+        <v>-0.07131018664496541</v>
+      </c>
+      <c r="G8">
+        <v>-0.07500060268898946</v>
+      </c>
+      <c r="H8">
+        <v>-0.01895533121145018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07038876823869454</v>
+        <v>0.08076509435727067</v>
       </c>
       <c r="C9">
-        <v>-0.04722750951868734</v>
+        <v>0.02235405427179939</v>
       </c>
       <c r="D9">
-        <v>0.0676746894800779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06480576592450489</v>
+      </c>
+      <c r="E9">
+        <v>-0.02383212103469544</v>
+      </c>
+      <c r="F9">
+        <v>-0.03338885698276164</v>
+      </c>
+      <c r="G9">
+        <v>-0.02756930143428303</v>
+      </c>
+      <c r="H9">
+        <v>0.04176350992578673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02544873044808262</v>
+        <v>0.04553503346802951</v>
       </c>
       <c r="C10">
-        <v>-0.02164963733868572</v>
+        <v>0.07902989887439134</v>
       </c>
       <c r="D10">
-        <v>-0.1704235490892438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1705344799446576</v>
+      </c>
+      <c r="E10">
+        <v>-0.03925895939210902</v>
+      </c>
+      <c r="F10">
+        <v>-0.05081266426600994</v>
+      </c>
+      <c r="G10">
+        <v>0.03996868492493234</v>
+      </c>
+      <c r="H10">
+        <v>-0.05131830543908689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06695552872272342</v>
+        <v>0.07341979421658879</v>
       </c>
       <c r="C11">
-        <v>-0.0437139998235599</v>
+        <v>0.0134192007021303</v>
       </c>
       <c r="D11">
-        <v>0.05170799815282986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.065109766313938</v>
+      </c>
+      <c r="E11">
+        <v>0.000727060639658122</v>
+      </c>
+      <c r="F11">
+        <v>-0.03334764305485962</v>
+      </c>
+      <c r="G11">
+        <v>-0.05196611625563424</v>
+      </c>
+      <c r="H11">
+        <v>0.06131391692826554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05668849982844696</v>
+        <v>0.06740091139166518</v>
       </c>
       <c r="C12">
-        <v>-0.05353759636392657</v>
+        <v>0.02772225801920688</v>
       </c>
       <c r="D12">
-        <v>0.04627335494838199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05375124770034126</v>
+      </c>
+      <c r="E12">
+        <v>-0.01169976869165552</v>
+      </c>
+      <c r="F12">
+        <v>-0.02191450834515566</v>
+      </c>
+      <c r="G12">
+        <v>-0.02684489006093042</v>
+      </c>
+      <c r="H12">
+        <v>0.02754191355737693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06890456562749367</v>
+        <v>0.07065043596314517</v>
       </c>
       <c r="C13">
-        <v>-0.05156316510690598</v>
+        <v>0.02592425704063281</v>
       </c>
       <c r="D13">
-        <v>0.03611529801701673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04077846270883025</v>
+      </c>
+      <c r="E13">
+        <v>-0.005814029698573588</v>
+      </c>
+      <c r="F13">
+        <v>-0.02378949606584055</v>
+      </c>
+      <c r="G13">
+        <v>-0.0255420108046032</v>
+      </c>
+      <c r="H13">
+        <v>0.05244585048039501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03005020068730081</v>
+        <v>0.03968883273835417</v>
       </c>
       <c r="C14">
-        <v>-0.03102086186418055</v>
+        <v>0.02635567010245586</v>
       </c>
       <c r="D14">
-        <v>-0.007370802140631875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01515080693605357</v>
+      </c>
+      <c r="E14">
+        <v>-0.02545184073221727</v>
+      </c>
+      <c r="F14">
+        <v>-0.01501362181262824</v>
+      </c>
+      <c r="G14">
+        <v>-0.01886237841935882</v>
+      </c>
+      <c r="H14">
+        <v>0.06264769613128418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04129603363778048</v>
+        <v>0.04070454896206115</v>
       </c>
       <c r="C15">
-        <v>-0.01432039822457321</v>
+        <v>0.004363149149106144</v>
       </c>
       <c r="D15">
-        <v>0.02230592138244022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01008542404070054</v>
+      </c>
+      <c r="E15">
+        <v>-0.03474238514321183</v>
+      </c>
+      <c r="F15">
+        <v>-0.003252290180555281</v>
+      </c>
+      <c r="G15">
+        <v>-0.02979387378729358</v>
+      </c>
+      <c r="H15">
+        <v>0.02633242332927639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05618464615020111</v>
+        <v>0.06895243181518289</v>
       </c>
       <c r="C16">
-        <v>-0.04228992034624535</v>
+        <v>0.0179500693662319</v>
       </c>
       <c r="D16">
-        <v>0.05424070644179505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06500046123614352</v>
+      </c>
+      <c r="E16">
+        <v>-0.004847905839777017</v>
+      </c>
+      <c r="F16">
+        <v>-0.0296015222570933</v>
+      </c>
+      <c r="G16">
+        <v>-0.02424488395180731</v>
+      </c>
+      <c r="H16">
+        <v>0.04783235638393384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06431505701048316</v>
+        <v>0.06314416765719384</v>
       </c>
       <c r="C20">
-        <v>-0.03088489798611021</v>
+        <v>0.004726938468579426</v>
       </c>
       <c r="D20">
-        <v>0.04318951806027688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04058441094778275</v>
+      </c>
+      <c r="E20">
+        <v>-0.005564683279832523</v>
+      </c>
+      <c r="F20">
+        <v>-0.0267649566759844</v>
+      </c>
+      <c r="G20">
+        <v>-0.01879836399191671</v>
+      </c>
+      <c r="H20">
+        <v>0.04302786031721884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03308452413860277</v>
+        <v>0.02939352716725421</v>
       </c>
       <c r="C21">
-        <v>-0.009909878129810168</v>
+        <v>-0.004137134223128277</v>
       </c>
       <c r="D21">
-        <v>0.01163432846044046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01924440386396698</v>
+      </c>
+      <c r="E21">
+        <v>-0.04048736730826961</v>
+      </c>
+      <c r="F21">
+        <v>0.01390897831905296</v>
+      </c>
+      <c r="G21">
+        <v>-0.006515312324181731</v>
+      </c>
+      <c r="H21">
+        <v>-0.04516122731010307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07636940147132541</v>
+        <v>0.06883234100513272</v>
       </c>
       <c r="C22">
-        <v>-0.06925509654020248</v>
+        <v>0.01945788974998082</v>
       </c>
       <c r="D22">
-        <v>0.1517473911608076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1133288389340333</v>
+      </c>
+      <c r="E22">
+        <v>-0.6094783574348571</v>
+      </c>
+      <c r="F22">
+        <v>0.0567662105562947</v>
+      </c>
+      <c r="G22">
+        <v>0.1745484084754857</v>
+      </c>
+      <c r="H22">
+        <v>-0.13116862652696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07747079545112755</v>
+        <v>0.0697845711336406</v>
       </c>
       <c r="C23">
-        <v>-0.06774494440156888</v>
+        <v>0.01786318802451799</v>
       </c>
       <c r="D23">
-        <v>0.1530068155573957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1142014425513252</v>
+      </c>
+      <c r="E23">
+        <v>-0.6115726376464509</v>
+      </c>
+      <c r="F23">
+        <v>0.05614092776926125</v>
+      </c>
+      <c r="G23">
+        <v>0.1689199023578864</v>
+      </c>
+      <c r="H23">
+        <v>-0.1268789329609326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07334268983387902</v>
+        <v>0.07887057210842983</v>
       </c>
       <c r="C24">
-        <v>-0.05370260950397773</v>
+        <v>0.02142767688016486</v>
       </c>
       <c r="D24">
-        <v>0.05987184538821363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06434508212324085</v>
+      </c>
+      <c r="E24">
+        <v>-0.01203008351376505</v>
+      </c>
+      <c r="F24">
+        <v>-0.03721291204596965</v>
+      </c>
+      <c r="G24">
+        <v>-0.03897871657833517</v>
+      </c>
+      <c r="H24">
+        <v>0.02871101580723797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07179247004948333</v>
+        <v>0.07793439862821547</v>
       </c>
       <c r="C25">
-        <v>-0.05673892304334287</v>
+        <v>0.0269359215171267</v>
       </c>
       <c r="D25">
-        <v>0.057967053382761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0570580052224339</v>
+      </c>
+      <c r="E25">
+        <v>-0.01404022346062842</v>
+      </c>
+      <c r="F25">
+        <v>-0.03203853669319053</v>
+      </c>
+      <c r="G25">
+        <v>-0.04829912863135854</v>
+      </c>
+      <c r="H25">
+        <v>0.03874547521600598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04445341791376368</v>
+        <v>0.04378995756231243</v>
       </c>
       <c r="C26">
-        <v>-0.01574733136147679</v>
+        <v>0.001195473053616831</v>
       </c>
       <c r="D26">
-        <v>0.009403726238899858</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01963384434751489</v>
+      </c>
+      <c r="E26">
+        <v>-0.04315348110084535</v>
+      </c>
+      <c r="F26">
+        <v>-0.02749822842943587</v>
+      </c>
+      <c r="G26">
+        <v>-0.02170049831436976</v>
+      </c>
+      <c r="H26">
+        <v>0.04119434604518008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03906735425428435</v>
+        <v>0.06617320517684577</v>
       </c>
       <c r="C28">
-        <v>-0.05810918719695332</v>
+        <v>0.1433771125884967</v>
       </c>
       <c r="D28">
-        <v>-0.3064336326602951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2869794789507352</v>
+      </c>
+      <c r="E28">
+        <v>-0.04003549028748538</v>
+      </c>
+      <c r="F28">
+        <v>-0.05150402533923337</v>
+      </c>
+      <c r="G28">
+        <v>-0.0174472580691191</v>
+      </c>
+      <c r="H28">
+        <v>-0.05997213377843773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04428296436672939</v>
+        <v>0.04794367108860836</v>
       </c>
       <c r="C29">
-        <v>-0.04132531245239877</v>
+        <v>0.02919159460541979</v>
       </c>
       <c r="D29">
-        <v>0.0008035452817372916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01676436108300346</v>
+      </c>
+      <c r="E29">
+        <v>-0.05508983440732115</v>
+      </c>
+      <c r="F29">
+        <v>-0.01439362565430862</v>
+      </c>
+      <c r="G29">
+        <v>-0.009543379477763004</v>
+      </c>
+      <c r="H29">
+        <v>0.07750005317143523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1262580512302143</v>
+        <v>0.1254111276056618</v>
       </c>
       <c r="C30">
-        <v>-0.1006953992144784</v>
+        <v>0.05027201114456102</v>
       </c>
       <c r="D30">
-        <v>0.1110208619287464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08855589586326772</v>
+      </c>
+      <c r="E30">
+        <v>-0.05600486482061725</v>
+      </c>
+      <c r="F30">
+        <v>-0.0172047331528227</v>
+      </c>
+      <c r="G30">
+        <v>-0.06209236859299336</v>
+      </c>
+      <c r="H30">
+        <v>-0.04930397095622623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04725304659632044</v>
+        <v>0.04919886399989005</v>
       </c>
       <c r="C31">
-        <v>-0.02697363617202251</v>
+        <v>0.008307059594417202</v>
       </c>
       <c r="D31">
-        <v>0.01997392244322982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03532518910236115</v>
+      </c>
+      <c r="E31">
+        <v>-0.02224177275162056</v>
+      </c>
+      <c r="F31">
+        <v>-0.009492031767063001</v>
+      </c>
+      <c r="G31">
+        <v>0.0003456829118788932</v>
+      </c>
+      <c r="H31">
+        <v>0.07061509433529481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0336143827686089</v>
+        <v>0.03733834943436486</v>
       </c>
       <c r="C32">
-        <v>-0.02532831861015528</v>
+        <v>0.02103618879826982</v>
       </c>
       <c r="D32">
-        <v>0.03126592265392726</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01342656120495567</v>
+      </c>
+      <c r="E32">
+        <v>-0.04645953467486457</v>
+      </c>
+      <c r="F32">
+        <v>0.004714699989231433</v>
+      </c>
+      <c r="G32">
+        <v>-0.04394713485180593</v>
+      </c>
+      <c r="H32">
+        <v>0.006297501561070879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08439964491178777</v>
+        <v>0.09408306070089777</v>
       </c>
       <c r="C33">
-        <v>-0.04838259651319644</v>
+        <v>0.01948510060862913</v>
       </c>
       <c r="D33">
-        <v>0.04615901699216873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0521802142339979</v>
+      </c>
+      <c r="E33">
+        <v>-0.01228877977966081</v>
+      </c>
+      <c r="F33">
+        <v>-0.001987688842865419</v>
+      </c>
+      <c r="G33">
+        <v>-0.009281542951579583</v>
+      </c>
+      <c r="H33">
+        <v>0.06406200333652577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05824065083801678</v>
+        <v>0.06567714675700116</v>
       </c>
       <c r="C34">
-        <v>-0.02947880676485305</v>
+        <v>0.005745666257929175</v>
       </c>
       <c r="D34">
-        <v>0.04922771906396301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05030944071383436</v>
+      </c>
+      <c r="E34">
+        <v>-0.006462780261838397</v>
+      </c>
+      <c r="F34">
+        <v>-0.02147062415482125</v>
+      </c>
+      <c r="G34">
+        <v>-0.03568498806997736</v>
+      </c>
+      <c r="H34">
+        <v>0.04983395768859519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03562700907314057</v>
+        <v>0.03772676717467026</v>
       </c>
       <c r="C35">
-        <v>-0.01446387806354937</v>
+        <v>0.00474946962951143</v>
       </c>
       <c r="D35">
-        <v>0.02139600265363875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0180355289789346</v>
+      </c>
+      <c r="E35">
+        <v>-0.02353070335452274</v>
+      </c>
+      <c r="F35">
+        <v>0.01608911250253505</v>
+      </c>
+      <c r="G35">
+        <v>0.004603972659359481</v>
+      </c>
+      <c r="H35">
+        <v>0.03448580995503307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0254478322997354</v>
+        <v>0.0276192563189398</v>
       </c>
       <c r="C36">
-        <v>-0.02126761565758135</v>
+        <v>0.01129223449849689</v>
       </c>
       <c r="D36">
-        <v>0.01789572798518929</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02023690125935048</v>
+      </c>
+      <c r="E36">
+        <v>-0.03246423174600013</v>
+      </c>
+      <c r="F36">
+        <v>-0.0258377574160997</v>
+      </c>
+      <c r="G36">
+        <v>-0.01312312891722524</v>
+      </c>
+      <c r="H36">
+        <v>0.04266144156605772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04929791034118654</v>
+        <v>0.04761965630614719</v>
       </c>
       <c r="C38">
-        <v>-0.01036469006608883</v>
+        <v>-0.005488575857888587</v>
       </c>
       <c r="D38">
-        <v>0.00791627879041688</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02105293610752534</v>
+      </c>
+      <c r="E38">
+        <v>-0.0488466922670665</v>
+      </c>
+      <c r="F38">
+        <v>0.001111571715253061</v>
+      </c>
+      <c r="G38">
+        <v>-0.004749081221713528</v>
+      </c>
+      <c r="H38">
+        <v>0.02045523126654103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09010668218234943</v>
+        <v>0.1018505565624319</v>
       </c>
       <c r="C39">
-        <v>-0.07501043188327397</v>
+        <v>0.04229405144802841</v>
       </c>
       <c r="D39">
-        <v>0.04796782644776458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06684060930964243</v>
+      </c>
+      <c r="E39">
+        <v>-0.002901613441531763</v>
+      </c>
+      <c r="F39">
+        <v>-0.001719563948863757</v>
+      </c>
+      <c r="G39">
+        <v>-0.05501664785579964</v>
+      </c>
+      <c r="H39">
+        <v>0.01494395953856909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08006115029775775</v>
+        <v>0.06176277667041091</v>
       </c>
       <c r="C40">
-        <v>-0.04156244088286429</v>
+        <v>-0.0006344347116208499</v>
       </c>
       <c r="D40">
-        <v>0.01151771174696673</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03464735505138854</v>
+      </c>
+      <c r="E40">
+        <v>-0.03663356841432373</v>
+      </c>
+      <c r="F40">
+        <v>0.03623313042127771</v>
+      </c>
+      <c r="G40">
+        <v>-0.06682995905169906</v>
+      </c>
+      <c r="H40">
+        <v>-0.08083097445714016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04582065203239263</v>
+        <v>0.04719956511950533</v>
       </c>
       <c r="C41">
-        <v>-0.01995452108407077</v>
+        <v>0.0007286742840092635</v>
       </c>
       <c r="D41">
-        <v>0.03287318016512692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03315287031373811</v>
+      </c>
+      <c r="E41">
+        <v>-0.001779129755480672</v>
+      </c>
+      <c r="F41">
+        <v>0.01414258593371599</v>
+      </c>
+      <c r="G41">
+        <v>-0.007822819215102124</v>
+      </c>
+      <c r="H41">
+        <v>0.02899527392482106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05423863646649651</v>
+        <v>0.06076545378197497</v>
       </c>
       <c r="C43">
-        <v>-0.0325711500068158</v>
+        <v>0.01506153988464883</v>
       </c>
       <c r="D43">
-        <v>0.0059985010567017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03237221407276449</v>
+      </c>
+      <c r="E43">
+        <v>-0.01817415665455846</v>
+      </c>
+      <c r="F43">
+        <v>-0.01320913130506427</v>
+      </c>
+      <c r="G43">
+        <v>0.01434165320133455</v>
+      </c>
+      <c r="H43">
+        <v>0.06575592432090792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09861643313633796</v>
+        <v>0.09541016543724701</v>
       </c>
       <c r="C44">
-        <v>-0.03805765710843889</v>
+        <v>0.00230834815963196</v>
       </c>
       <c r="D44">
-        <v>0.0516742084928583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0532125919813107</v>
+      </c>
+      <c r="E44">
+        <v>-0.07278505609989587</v>
+      </c>
+      <c r="F44">
+        <v>-0.07696337913751265</v>
+      </c>
+      <c r="G44">
+        <v>-0.08125222836116776</v>
+      </c>
+      <c r="H44">
+        <v>0.04568262772222952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02494485680055048</v>
+        <v>0.03496480180095086</v>
       </c>
       <c r="C46">
-        <v>-0.02384231710229057</v>
+        <v>0.01346860689611094</v>
       </c>
       <c r="D46">
-        <v>0.0344359693135092</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04091485466264069</v>
+      </c>
+      <c r="E46">
+        <v>-0.02911646940617921</v>
+      </c>
+      <c r="F46">
+        <v>-0.01621256950051102</v>
+      </c>
+      <c r="G46">
+        <v>0.002077743884161398</v>
+      </c>
+      <c r="H46">
+        <v>0.03251312546339281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03107212051831919</v>
+        <v>0.0401489105924745</v>
       </c>
       <c r="C47">
-        <v>-0.02511276812243343</v>
+        <v>0.02018538475115617</v>
       </c>
       <c r="D47">
-        <v>-0.0005755254903882829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0106257668811613</v>
+      </c>
+      <c r="E47">
+        <v>-0.04034762894365915</v>
+      </c>
+      <c r="F47">
+        <v>0.006886810706712744</v>
+      </c>
+      <c r="G47">
+        <v>0.02692903559996331</v>
+      </c>
+      <c r="H47">
+        <v>0.03613232940101512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03579359772975592</v>
+        <v>0.0395122995953316</v>
       </c>
       <c r="C48">
-        <v>-0.02845043601998489</v>
+        <v>0.01529124670918675</v>
       </c>
       <c r="D48">
-        <v>0.02702700537233267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02040662795480028</v>
+      </c>
+      <c r="E48">
+        <v>-0.03939135618426298</v>
+      </c>
+      <c r="F48">
+        <v>-0.00938611011429023</v>
+      </c>
+      <c r="G48">
+        <v>-0.0224732756922093</v>
+      </c>
+      <c r="H48">
+        <v>0.01992607170184402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1589111032750717</v>
+        <v>0.1971448907658568</v>
       </c>
       <c r="C49">
-        <v>-0.05223996909870742</v>
+        <v>0.03413367904955252</v>
       </c>
       <c r="D49">
-        <v>0.004483134646498792</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02963211981204762</v>
+      </c>
+      <c r="E49">
+        <v>0.1682517467430815</v>
+      </c>
+      <c r="F49">
+        <v>-0.04464142644213629</v>
+      </c>
+      <c r="G49">
+        <v>0.1597072865890213</v>
+      </c>
+      <c r="H49">
+        <v>-0.2091371484723594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04260087529827134</v>
+        <v>0.04554116151853792</v>
       </c>
       <c r="C50">
-        <v>-0.02800378867999552</v>
+        <v>0.009814633270252527</v>
       </c>
       <c r="D50">
-        <v>0.03548127430030792</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04073410448817394</v>
+      </c>
+      <c r="E50">
+        <v>-0.03155722325837603</v>
+      </c>
+      <c r="F50">
+        <v>-0.003756347825005718</v>
+      </c>
+      <c r="G50">
+        <v>0.001549441737566793</v>
+      </c>
+      <c r="H50">
+        <v>0.07671101362643683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0244800935806775</v>
+        <v>0.03444706922277763</v>
       </c>
       <c r="C51">
-        <v>-0.006159482212725624</v>
+        <v>0.004738353794264731</v>
       </c>
       <c r="D51">
-        <v>-0.0005519998454176929</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001757819737669613</v>
+      </c>
+      <c r="E51">
+        <v>-0.01191490139936398</v>
+      </c>
+      <c r="F51">
+        <v>-0.01094258018084448</v>
+      </c>
+      <c r="G51">
+        <v>0.01444660434761969</v>
+      </c>
+      <c r="H51">
+        <v>-0.01691778995936401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1510028772083473</v>
+        <v>0.1606823155251988</v>
       </c>
       <c r="C53">
-        <v>-0.08617648545074155</v>
+        <v>0.05132169174983307</v>
       </c>
       <c r="D53">
-        <v>-0.008165345005152763</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02933015564833061</v>
+      </c>
+      <c r="E53">
+        <v>0.03063759249216141</v>
+      </c>
+      <c r="F53">
+        <v>-8.56945670832328e-06</v>
+      </c>
+      <c r="G53">
+        <v>-0.0169985826146857</v>
+      </c>
+      <c r="H53">
+        <v>0.2052409754215043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05795689610075565</v>
+        <v>0.05823924710301582</v>
       </c>
       <c r="C54">
-        <v>-0.03303472417491206</v>
+        <v>0.01709153141641924</v>
       </c>
       <c r="D54">
-        <v>0.02033843606504436</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01825679254420567</v>
+      </c>
+      <c r="E54">
+        <v>-0.05217661236922167</v>
+      </c>
+      <c r="F54">
+        <v>-0.01655627747580594</v>
+      </c>
+      <c r="G54">
+        <v>-0.05793242409768988</v>
+      </c>
+      <c r="H54">
+        <v>0.03837567676579327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09904438913579748</v>
+        <v>0.1014000447250632</v>
       </c>
       <c r="C55">
-        <v>-0.05676841119326256</v>
+        <v>0.02867190205940286</v>
       </c>
       <c r="D55">
-        <v>0.01102565087318683</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03166777222470708</v>
+      </c>
+      <c r="E55">
+        <v>-0.0001956496504574487</v>
+      </c>
+      <c r="F55">
+        <v>-0.01570532645338837</v>
+      </c>
+      <c r="G55">
+        <v>-0.02948998059120571</v>
+      </c>
+      <c r="H55">
+        <v>0.1585669875350335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1452140661160803</v>
+        <v>0.1546297484244275</v>
       </c>
       <c r="C56">
-        <v>-0.08880106131611967</v>
+        <v>0.04802504994964336</v>
       </c>
       <c r="D56">
-        <v>-0.005734978512278308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04689659836560097</v>
+      </c>
+      <c r="E56">
+        <v>0.01429059728793443</v>
+      </c>
+      <c r="F56">
+        <v>-0.02158309007330483</v>
+      </c>
+      <c r="G56">
+        <v>-0.02515718887096731</v>
+      </c>
+      <c r="H56">
+        <v>0.2081662703608777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1303841447997297</v>
+        <v>0.09876845554328095</v>
       </c>
       <c r="C58">
-        <v>0.01605239629423197</v>
+        <v>-0.0678466511046782</v>
       </c>
       <c r="D58">
-        <v>0.05333206299536547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02239490620795117</v>
+      </c>
+      <c r="E58">
+        <v>-0.1244351388572985</v>
+      </c>
+      <c r="F58">
+        <v>-0.0299799667996098</v>
+      </c>
+      <c r="G58">
+        <v>0.06722494696075913</v>
+      </c>
+      <c r="H58">
+        <v>-0.1821550645305265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1149603138763505</v>
+        <v>0.1439299326691421</v>
       </c>
       <c r="C59">
-        <v>-0.0734068232796789</v>
+        <v>0.1578498166695154</v>
       </c>
       <c r="D59">
-        <v>-0.4068873978534004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3398963978983602</v>
+      </c>
+      <c r="E59">
+        <v>-0.03795576869916325</v>
+      </c>
+      <c r="F59">
+        <v>-0.003718258642474864</v>
+      </c>
+      <c r="G59">
+        <v>-0.008391027396716013</v>
+      </c>
+      <c r="H59">
+        <v>0.0108065856622349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2039477022798642</v>
+        <v>0.2375816831538748</v>
       </c>
       <c r="C60">
-        <v>-0.1041730442210138</v>
+        <v>0.0639105640144675</v>
       </c>
       <c r="D60">
-        <v>0.005237675376122087</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05320963251830509</v>
+      </c>
+      <c r="E60">
+        <v>0.1144027310546735</v>
+      </c>
+      <c r="F60">
+        <v>-0.0483069302362539</v>
+      </c>
+      <c r="G60">
+        <v>0.04190112089470902</v>
+      </c>
+      <c r="H60">
+        <v>-0.1334818162146027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07841242094616387</v>
+        <v>0.08599415528855865</v>
       </c>
       <c r="C61">
-        <v>-0.05002893958107495</v>
+        <v>0.02530935435558165</v>
       </c>
       <c r="D61">
-        <v>0.02935970007386516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04628090947695023</v>
+      </c>
+      <c r="E61">
+        <v>-0.007314357376705294</v>
+      </c>
+      <c r="F61">
+        <v>-0.01233839423416709</v>
+      </c>
+      <c r="G61">
+        <v>-0.03790593567287036</v>
+      </c>
+      <c r="H61">
+        <v>0.06057909349319441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1292980103701258</v>
+        <v>0.1346018385128986</v>
       </c>
       <c r="C62">
-        <v>-0.05863019870950816</v>
+        <v>0.02057423286260051</v>
       </c>
       <c r="D62">
-        <v>-0.006035000450328392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04405159831139107</v>
+      </c>
+      <c r="E62">
+        <v>0.04605485465478816</v>
+      </c>
+      <c r="F62">
+        <v>0.0182911481456388</v>
+      </c>
+      <c r="G62">
+        <v>-0.04558698521558417</v>
+      </c>
+      <c r="H62">
+        <v>0.1981879840469474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05034726914859827</v>
+        <v>0.04878186544299987</v>
       </c>
       <c r="C63">
-        <v>-0.02622379118930846</v>
+        <v>0.01080288671094065</v>
       </c>
       <c r="D63">
-        <v>0.02688748726138595</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02377480663922319</v>
+      </c>
+      <c r="E63">
+        <v>-0.04178060384462462</v>
+      </c>
+      <c r="F63">
+        <v>0.0005899419209397541</v>
+      </c>
+      <c r="G63">
+        <v>-0.03340106536309771</v>
+      </c>
+      <c r="H63">
+        <v>0.03429236232829545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1062549826165465</v>
+        <v>0.1106668672009685</v>
       </c>
       <c r="C64">
-        <v>-0.04584368112528409</v>
+        <v>0.02155379078892475</v>
       </c>
       <c r="D64">
-        <v>0.01611590487159724</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02809541550027893</v>
+      </c>
+      <c r="E64">
+        <v>-0.03995921516308899</v>
+      </c>
+      <c r="F64">
+        <v>-0.04624434132641731</v>
+      </c>
+      <c r="G64">
+        <v>-0.06433282696297959</v>
+      </c>
+      <c r="H64">
+        <v>0.02146748756534898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1254315184628099</v>
+        <v>0.1299094580232392</v>
       </c>
       <c r="C65">
-        <v>-0.07259468947425037</v>
+        <v>0.04990099446186751</v>
       </c>
       <c r="D65">
-        <v>0.007624271241869657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01761316348306894</v>
+      </c>
+      <c r="E65">
+        <v>0.008159791850587152</v>
+      </c>
+      <c r="F65">
+        <v>-0.03289243329438137</v>
+      </c>
+      <c r="G65">
+        <v>-0.03270649988173989</v>
+      </c>
+      <c r="H65">
+        <v>-0.1382061321604839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1480197705230974</v>
+        <v>0.1529150334201997</v>
       </c>
       <c r="C66">
-        <v>-0.08833169717321042</v>
+        <v>0.03313334581869094</v>
       </c>
       <c r="D66">
-        <v>0.09130992066114457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1049895413676144</v>
+      </c>
+      <c r="E66">
+        <v>0.02569524879231197</v>
+      </c>
+      <c r="F66">
+        <v>-0.006918206929521956</v>
+      </c>
+      <c r="G66">
+        <v>-0.07990815539328638</v>
+      </c>
+      <c r="H66">
+        <v>0.07316634261343992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07815438966215971</v>
+        <v>0.08676407357926236</v>
       </c>
       <c r="C67">
-        <v>-0.01843255051885739</v>
+        <v>-0.0002991171057570227</v>
       </c>
       <c r="D67">
-        <v>0.01453483763552326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03344990299776437</v>
+      </c>
+      <c r="E67">
+        <v>-0.02104742630908163</v>
+      </c>
+      <c r="F67">
+        <v>-0.01465850996709763</v>
+      </c>
+      <c r="G67">
+        <v>0.01159967272382804</v>
+      </c>
+      <c r="H67">
+        <v>0.01955427889191957</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04857116537842189</v>
+        <v>0.05921280479636781</v>
       </c>
       <c r="C68">
-        <v>-0.04171765785649034</v>
+        <v>0.1107885321788885</v>
       </c>
       <c r="D68">
-        <v>-0.259955314013959</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2521091449478045</v>
+      </c>
+      <c r="E68">
+        <v>-0.04829156209787324</v>
+      </c>
+      <c r="F68">
+        <v>-0.01288778485063487</v>
+      </c>
+      <c r="G68">
+        <v>-0.0008889686346435318</v>
+      </c>
+      <c r="H68">
+        <v>0.01862387876240271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05336866272224568</v>
+        <v>0.05229031029446678</v>
       </c>
       <c r="C69">
-        <v>-0.02490214913955269</v>
+        <v>0.005787967831419541</v>
       </c>
       <c r="D69">
-        <v>0.0200875958098842</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02133027124481116</v>
+      </c>
+      <c r="E69">
+        <v>-0.02367703091923894</v>
+      </c>
+      <c r="F69">
+        <v>0.01089900887490186</v>
+      </c>
+      <c r="G69">
+        <v>-0.001072124003884148</v>
+      </c>
+      <c r="H69">
+        <v>0.04696767392493133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006138979626921282</v>
+        <v>0.03105795644903094</v>
       </c>
       <c r="C70">
-        <v>0.001588868864617219</v>
+        <v>0.005580349513301382</v>
       </c>
       <c r="D70">
-        <v>-0.0134280987879293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006974846188964941</v>
+      </c>
+      <c r="E70">
+        <v>0.02402310488300453</v>
+      </c>
+      <c r="F70">
+        <v>0.00744595576547235</v>
+      </c>
+      <c r="G70">
+        <v>0.02933664990158199</v>
+      </c>
+      <c r="H70">
+        <v>-0.03493114098968508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04667442662675578</v>
+        <v>0.06528727932957885</v>
       </c>
       <c r="C71">
-        <v>-0.0394611051439754</v>
+        <v>0.123535232737746</v>
       </c>
       <c r="D71">
-        <v>-0.2916332894444227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2784300281453499</v>
+      </c>
+      <c r="E71">
+        <v>-0.04824800231333331</v>
+      </c>
+      <c r="F71">
+        <v>-0.03838023534799303</v>
+      </c>
+      <c r="G71">
+        <v>0.0007940765285229463</v>
+      </c>
+      <c r="H71">
+        <v>0.01275966717221591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1375149168596988</v>
+        <v>0.1418533777143587</v>
       </c>
       <c r="C72">
-        <v>-0.0648305340628391</v>
+        <v>0.0324777811022044</v>
       </c>
       <c r="D72">
-        <v>-0.01617234489736603</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007933766258853189</v>
+      </c>
+      <c r="E72">
+        <v>0.04729097315476337</v>
+      </c>
+      <c r="F72">
+        <v>0.1600773101649744</v>
+      </c>
+      <c r="G72">
+        <v>-0.11318632232493</v>
+      </c>
+      <c r="H72">
+        <v>-0.002608048084426191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2796216927591189</v>
+        <v>0.2843981567647471</v>
       </c>
       <c r="C73">
-        <v>-0.09943344350040156</v>
+        <v>0.009684060344136628</v>
       </c>
       <c r="D73">
-        <v>0.04506584432229367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09716023748963962</v>
+      </c>
+      <c r="E73">
+        <v>0.259342207441595</v>
+      </c>
+      <c r="F73">
+        <v>-0.07054028686741015</v>
+      </c>
+      <c r="G73">
+        <v>0.2650985212675825</v>
+      </c>
+      <c r="H73">
+        <v>-0.3823859783341724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07782416987326059</v>
+        <v>0.08968887075228342</v>
       </c>
       <c r="C74">
-        <v>-0.07630044775411526</v>
+        <v>0.04946380877872796</v>
       </c>
       <c r="D74">
-        <v>0.004343318279662569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04627084073718663</v>
+      </c>
+      <c r="E74">
+        <v>0.006122949667663117</v>
+      </c>
+      <c r="F74">
+        <v>7.62175446290153e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.02211981603973922</v>
+      </c>
+      <c r="H74">
+        <v>0.1392390076541163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09935814972334529</v>
+        <v>0.1021649753884072</v>
       </c>
       <c r="C75">
-        <v>-0.05354019316220437</v>
+        <v>0.02005907001202472</v>
       </c>
       <c r="D75">
-        <v>0.005728464966577054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02681095394915766</v>
+      </c>
+      <c r="E75">
+        <v>-6.413794618559582e-05</v>
+      </c>
+      <c r="F75">
+        <v>0.0003386602764825238</v>
+      </c>
+      <c r="G75">
+        <v>0.001259591447986629</v>
+      </c>
+      <c r="H75">
+        <v>0.09796373036265102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1263377483468738</v>
+        <v>0.1385159978509264</v>
       </c>
       <c r="C76">
-        <v>-0.07528595681037241</v>
+        <v>0.03930416249734256</v>
       </c>
       <c r="D76">
-        <v>0.02255643898251376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05866254866369009</v>
+      </c>
+      <c r="E76">
+        <v>-0.01016796410013196</v>
+      </c>
+      <c r="F76">
+        <v>-0.03009664232564409</v>
+      </c>
+      <c r="G76">
+        <v>-0.02832702953904017</v>
+      </c>
+      <c r="H76">
+        <v>0.2290036926975972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178460563351208</v>
+        <v>0.1014816438092558</v>
       </c>
       <c r="C77">
-        <v>-0.04219041034884147</v>
+        <v>-0.006275331557901731</v>
       </c>
       <c r="D77">
-        <v>0.08382285387496073</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04387223246138266</v>
+      </c>
+      <c r="E77">
+        <v>-0.03952905906192215</v>
+      </c>
+      <c r="F77">
+        <v>-0.06460531441015416</v>
+      </c>
+      <c r="G77">
+        <v>-0.7830607061704247</v>
+      </c>
+      <c r="H77">
+        <v>-0.376694995912763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1058262409487888</v>
+        <v>0.1526166801545009</v>
       </c>
       <c r="C78">
-        <v>-0.0463386155056499</v>
+        <v>0.03493349359752703</v>
       </c>
       <c r="D78">
-        <v>0.08719560842876284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0811368293026954</v>
+      </c>
+      <c r="E78">
+        <v>-0.05684603473988383</v>
+      </c>
+      <c r="F78">
+        <v>-0.0556687699603205</v>
+      </c>
+      <c r="G78">
+        <v>-0.03079152116096374</v>
+      </c>
+      <c r="H78">
+        <v>-0.08410989327799866</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1406807584913835</v>
+        <v>0.1450055067647015</v>
       </c>
       <c r="C79">
-        <v>-0.07650658917021902</v>
+        <v>0.03227162646832477</v>
       </c>
       <c r="D79">
-        <v>0.0211765229604581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04935775515091239</v>
+      </c>
+      <c r="E79">
+        <v>0.015627074493477</v>
+      </c>
+      <c r="F79">
+        <v>-0.01643888157537912</v>
+      </c>
+      <c r="G79">
+        <v>-0.03113701130822447</v>
+      </c>
+      <c r="H79">
+        <v>0.1723268136968578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04280428968719865</v>
+        <v>0.04380266482205454</v>
       </c>
       <c r="C80">
-        <v>-0.02279665200544065</v>
+        <v>0.01141123377362284</v>
       </c>
       <c r="D80">
-        <v>0.0287009353374793</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01507869878623427</v>
+      </c>
+      <c r="E80">
+        <v>0.04134678717280031</v>
+      </c>
+      <c r="F80">
+        <v>-0.00797688114853163</v>
+      </c>
+      <c r="G80">
+        <v>0.01579209126951638</v>
+      </c>
+      <c r="H80">
+        <v>0.03568215745358196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.121967301201781</v>
+        <v>0.1257449228214592</v>
       </c>
       <c r="C81">
-        <v>-0.07579494700611925</v>
+        <v>0.03942958211694851</v>
       </c>
       <c r="D81">
-        <v>0.02001081823525701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.033556976686606</v>
+      </c>
+      <c r="E81">
+        <v>-0.006712454102531305</v>
+      </c>
+      <c r="F81">
+        <v>-0.01817849235750754</v>
+      </c>
+      <c r="G81">
+        <v>-0.001685874308110301</v>
+      </c>
+      <c r="H81">
+        <v>0.1491719569468611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.129438511005428</v>
+        <v>0.1303282833410442</v>
       </c>
       <c r="C82">
-        <v>-0.07509159221891096</v>
+        <v>0.03826247025865331</v>
       </c>
       <c r="D82">
-        <v>0.0008441066067897417</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03833488893094972</v>
+      </c>
+      <c r="E82">
+        <v>0.02311566330121643</v>
+      </c>
+      <c r="F82">
+        <v>-0.0377199953158275</v>
+      </c>
+      <c r="G82">
+        <v>-0.01320277543407592</v>
+      </c>
+      <c r="H82">
+        <v>0.2225089830772014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06628342818889592</v>
+        <v>0.0830019553769349</v>
       </c>
       <c r="C83">
-        <v>0.01441145676812015</v>
+        <v>-0.02553972428681912</v>
       </c>
       <c r="D83">
-        <v>0.01948178833189766</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01668636692046199</v>
+      </c>
+      <c r="E83">
+        <v>-0.01483971705583755</v>
+      </c>
+      <c r="F83">
+        <v>-0.03465646399687353</v>
+      </c>
+      <c r="G83">
+        <v>0.04839192344705204</v>
+      </c>
+      <c r="H83">
+        <v>-0.03476668332756382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02975161701630859</v>
+        <v>0.03471170309771489</v>
       </c>
       <c r="C84">
-        <v>-0.0377085917875323</v>
+        <v>0.01792346649537719</v>
       </c>
       <c r="D84">
-        <v>0.03593377034019805</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04363776771938314</v>
+      </c>
+      <c r="E84">
+        <v>-0.01923691134283372</v>
+      </c>
+      <c r="F84">
+        <v>0.03529438278922242</v>
+      </c>
+      <c r="G84">
+        <v>0.03139539238994525</v>
+      </c>
+      <c r="H84">
+        <v>0.01860970931943697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1161945767291145</v>
+        <v>0.1219583618625766</v>
       </c>
       <c r="C85">
-        <v>-0.04514474193874389</v>
+        <v>0.01273308508479744</v>
       </c>
       <c r="D85">
-        <v>0.04809077169083126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04200636857862332</v>
+      </c>
+      <c r="E85">
+        <v>-0.01667596619819683</v>
+      </c>
+      <c r="F85">
+        <v>-0.03441663516235636</v>
+      </c>
+      <c r="G85">
+        <v>0.004852211612068156</v>
+      </c>
+      <c r="H85">
+        <v>0.1475569820956782</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05129266568758146</v>
+        <v>0.05589039461137131</v>
       </c>
       <c r="C86">
-        <v>-0.02739210255070284</v>
+        <v>0.007546996812565872</v>
       </c>
       <c r="D86">
-        <v>0.06566184056083287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03484583922374161</v>
+      </c>
+      <c r="E86">
+        <v>-0.04071713629042342</v>
+      </c>
+      <c r="F86">
+        <v>-0.02602836354879475</v>
+      </c>
+      <c r="G86">
+        <v>0.03685794948377809</v>
+      </c>
+      <c r="H86">
+        <v>-0.05177868366685196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1224702770487324</v>
+        <v>0.1257291035022409</v>
       </c>
       <c r="C87">
-        <v>-0.08355953469104835</v>
+        <v>0.03196313558612818</v>
       </c>
       <c r="D87">
-        <v>0.06430154816193742</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07188594050443978</v>
+      </c>
+      <c r="E87">
+        <v>-0.01972967188265676</v>
+      </c>
+      <c r="F87">
+        <v>-0.02314395494226791</v>
+      </c>
+      <c r="G87">
+        <v>-0.1468589322422335</v>
+      </c>
+      <c r="H87">
+        <v>-0.08161211907184274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05341242305908236</v>
+        <v>0.06335833271920574</v>
       </c>
       <c r="C88">
-        <v>-0.03716139285565764</v>
+        <v>0.01958181096426998</v>
       </c>
       <c r="D88">
-        <v>0.0248034375754121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04334412391345989</v>
+      </c>
+      <c r="E88">
+        <v>-0.002239327753818238</v>
+      </c>
+      <c r="F88">
+        <v>-0.02240579693223322</v>
+      </c>
+      <c r="G88">
+        <v>-0.01095061276367009</v>
+      </c>
+      <c r="H88">
+        <v>0.04572442852909795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07653664243653563</v>
+        <v>0.1029558102067128</v>
       </c>
       <c r="C89">
-        <v>-0.06409249883899723</v>
+        <v>0.1604401889421068</v>
       </c>
       <c r="D89">
-        <v>-0.3183118247473465</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3258488462140937</v>
+      </c>
+      <c r="E89">
+        <v>-0.06088312016200113</v>
+      </c>
+      <c r="F89">
+        <v>-0.0717686698740205</v>
+      </c>
+      <c r="G89">
+        <v>0.02140072019932992</v>
+      </c>
+      <c r="H89">
+        <v>0.01870306078096408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05738680712111964</v>
+        <v>0.07818775281563999</v>
       </c>
       <c r="C90">
-        <v>-0.04816682326725939</v>
+        <v>0.1259196610983259</v>
       </c>
       <c r="D90">
-        <v>-0.2823140705122061</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2695650998540248</v>
+      </c>
+      <c r="E90">
+        <v>-0.05666072984428076</v>
+      </c>
+      <c r="F90">
+        <v>-0.02852007687523709</v>
+      </c>
+      <c r="G90">
+        <v>-0.03074391579339459</v>
+      </c>
+      <c r="H90">
+        <v>-0.02061615038160541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0882063532533038</v>
+        <v>0.08988442237821907</v>
       </c>
       <c r="C91">
-        <v>-0.05684057407440173</v>
+        <v>0.02445726737343816</v>
       </c>
       <c r="D91">
-        <v>0.01204559832333599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.035629713776475</v>
+      </c>
+      <c r="E91">
+        <v>-0.005965307238718034</v>
+      </c>
+      <c r="F91">
+        <v>-0.003573053206174272</v>
+      </c>
+      <c r="G91">
+        <v>0.01594192909405145</v>
+      </c>
+      <c r="H91">
+        <v>0.08940516969386399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06062238732964802</v>
+        <v>0.0806382656939066</v>
       </c>
       <c r="C92">
-        <v>-0.05887215451309501</v>
+        <v>0.1485553074853375</v>
       </c>
       <c r="D92">
-        <v>-0.3330086291464412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3144611472101795</v>
+      </c>
+      <c r="E92">
+        <v>-0.05244346533729351</v>
+      </c>
+      <c r="F92">
+        <v>-0.03713115577667471</v>
+      </c>
+      <c r="G92">
+        <v>-0.007264600526961576</v>
+      </c>
+      <c r="H92">
+        <v>0.02237644539357911</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05167268001916878</v>
+        <v>0.07606985427307086</v>
       </c>
       <c r="C93">
-        <v>-0.05266175540979727</v>
+        <v>0.1404042970196383</v>
       </c>
       <c r="D93">
-        <v>-0.2987827251905987</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2846606597111408</v>
+      </c>
+      <c r="E93">
+        <v>-0.02971062848324033</v>
+      </c>
+      <c r="F93">
+        <v>-0.0285827315489534</v>
+      </c>
+      <c r="G93">
+        <v>-0.01479036382709323</v>
+      </c>
+      <c r="H93">
+        <v>0.001826367682306594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1287304650329721</v>
+        <v>0.1262668226702683</v>
       </c>
       <c r="C94">
-        <v>-0.0432632105907446</v>
+        <v>0.0008755933927037118</v>
       </c>
       <c r="D94">
-        <v>0.04265479727296418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04738922319255817</v>
+      </c>
+      <c r="E94">
+        <v>0.01952696008968874</v>
+      </c>
+      <c r="F94">
+        <v>-0.01854379682741766</v>
+      </c>
+      <c r="G94">
+        <v>0.02648723546255946</v>
+      </c>
+      <c r="H94">
+        <v>0.1118910980713079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1201798773675511</v>
+        <v>0.1299330124099126</v>
       </c>
       <c r="C95">
-        <v>-0.03636634780312861</v>
+        <v>-0.0004546481805111672</v>
       </c>
       <c r="D95">
-        <v>0.05646160533165213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06113087618487398</v>
+      </c>
+      <c r="E95">
+        <v>-0.003568057573839794</v>
+      </c>
+      <c r="F95">
+        <v>-0.05530630748367001</v>
+      </c>
+      <c r="G95">
+        <v>-0.04028272520020299</v>
+      </c>
+      <c r="H95">
+        <v>-0.09492290087934238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2234365413711706</v>
+        <v>0.1949892113827257</v>
       </c>
       <c r="C97">
-        <v>-0.06031231021562158</v>
+        <v>-0.002013627399129022</v>
       </c>
       <c r="D97">
-        <v>-0.1261197367736874</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06252837230777072</v>
+      </c>
+      <c r="E97">
+        <v>0.05760296471325307</v>
+      </c>
+      <c r="F97">
+        <v>0.9384787903151427</v>
+      </c>
+      <c r="G97">
+        <v>-0.04416041599932069</v>
+      </c>
+      <c r="H97">
+        <v>-0.03044787636542282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2375530405178322</v>
+        <v>0.2727789777625388</v>
       </c>
       <c r="C98">
-        <v>-0.06722399725794315</v>
+        <v>0.02269763769428296</v>
       </c>
       <c r="D98">
-        <v>0.0123287418063898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04074014591507194</v>
+      </c>
+      <c r="E98">
+        <v>0.2026527197322843</v>
+      </c>
+      <c r="F98">
+        <v>-0.04304085792009995</v>
+      </c>
+      <c r="G98">
+        <v>0.3326081823654362</v>
+      </c>
+      <c r="H98">
+        <v>-0.192764703093155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4485256002621703</v>
+        <v>0.2869943483995032</v>
       </c>
       <c r="C99">
-        <v>0.8768632670325471</v>
+        <v>-0.8852587356087374</v>
       </c>
       <c r="D99">
-        <v>-0.0341848373402108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.3134642957338945</v>
+      </c>
+      <c r="E99">
+        <v>-0.06782196132436934</v>
+      </c>
+      <c r="F99">
+        <v>-0.07431992147291726</v>
+      </c>
+      <c r="G99">
+        <v>-0.01810078304047467</v>
+      </c>
+      <c r="H99">
+        <v>0.0702079766060946</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04434971240869549</v>
+        <v>0.04801630316438355</v>
       </c>
       <c r="C101">
-        <v>-0.04162362170840413</v>
+        <v>0.02942106837748859</v>
       </c>
       <c r="D101">
-        <v>0.0009885258493767121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01715944714375478</v>
+      </c>
+      <c r="E101">
+        <v>-0.05484166376242952</v>
+      </c>
+      <c r="F101">
+        <v>-0.01449337226997405</v>
+      </c>
+      <c r="G101">
+        <v>-0.008459945492235433</v>
+      </c>
+      <c r="H101">
+        <v>0.0762292632978166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
